--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Description</t>
   </si>
@@ -86,6 +86,51 @@
   </si>
   <si>
     <t>https://demo-dss.tookitaki.com/#/home/dashboard</t>
+  </si>
+  <si>
+    <t>Reports Path</t>
+  </si>
+  <si>
+    <t>Tookitaki Reports</t>
+  </si>
+  <si>
+    <t>TestNGXML Path</t>
+  </si>
+  <si>
+    <t>D:\\Tookitaki\\testng.xml</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>pavan.govardhanan@tookitaki.com</t>
+  </si>
+  <si>
+    <t>sunindia95</t>
+  </si>
+  <si>
+    <t>Email Recipients</t>
+  </si>
+  <si>
+    <t>Email Subject</t>
+  </si>
+  <si>
+    <t>Email Body</t>
+  </si>
+  <si>
+    <t>pavan.g@trackdfect.com</t>
+  </si>
+  <si>
+    <t>Automation Reports</t>
+  </si>
+  <si>
+    <t>Current Test Run Reports</t>
+  </si>
+  <si>
+    <t>Emailable Report</t>
   </si>
 </sst>
 </file>
@@ -626,7 +671,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -644,6 +689,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -791,7 +839,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="Description" dataDxfId="2"/>
     <tableColumn id="2" name="Components" dataDxfId="1"/>
@@ -1088,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,14 +1232,86 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1203,11 +1323,13 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="/home/dashboard"/>
     <hyperlink ref="C4" r:id="rId2" display="ayush@connaizen.com"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>